--- a/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_-10%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_-10%.xlsx
@@ -72796,6 +72796,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.37416666666667</v>
+      </c>
       <c r="C2" t="n">
         <v>426.2077777777778</v>
       </c>
@@ -72851,6 +72854,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>12.69166666666667</v>
+      </c>
       <c r="C3" t="n">
         <v>438.6655555555556</v>
       </c>
@@ -72906,6 +72912,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>12.39183333333333</v>
+      </c>
       <c r="C4" t="n">
         <v>432.4333333333334</v>
       </c>
@@ -72961,6 +72970,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>14.40666666666667</v>
+      </c>
       <c r="C5" t="n">
         <v>442.5105555555555</v>
       </c>
@@ -73016,6 +73028,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>11.7265</v>
+      </c>
       <c r="C6" t="n">
         <v>381.0205555555555</v>
       </c>
@@ -73071,6 +73086,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>13.42033333333333</v>
+      </c>
       <c r="C7" t="n">
         <v>447.3044444444445</v>
       </c>
@@ -73126,6 +73144,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>12.214</v>
+      </c>
       <c r="C8" t="n">
         <v>425.6383333333333</v>
       </c>
@@ -73181,6 +73202,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>13.223</v>
+      </c>
       <c r="C9" t="n">
         <v>432.0766666666667</v>
       </c>
@@ -73236,6 +73260,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>12.34916666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>437.4077777777778</v>
       </c>
@@ -73291,6 +73318,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>13.2165</v>
+      </c>
       <c r="C11" t="n">
         <v>421.4622222222222</v>
       </c>
@@ -73346,6 +73376,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.08266666666667</v>
+      </c>
       <c r="C12" t="n">
         <v>447.5077777777778</v>
       </c>
@@ -73401,6 +73434,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.84783333333333</v>
+      </c>
       <c r="C13" t="n">
         <v>442.9516666666667</v>
       </c>
@@ -73456,6 +73492,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>12.69433333333333</v>
+      </c>
       <c r="C14" t="n">
         <v>426.8877777777777</v>
       </c>
@@ -73511,6 +73550,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>14.12216666666667</v>
+      </c>
       <c r="C15" t="n">
         <v>444.0733333333333</v>
       </c>
@@ -73566,6 +73608,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>14.23916666666667</v>
+      </c>
       <c r="C16" t="n">
         <v>428.9161111111111</v>
       </c>
@@ -73621,6 +73666,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.1545</v>
+      </c>
       <c r="C17" t="n">
         <v>417.3088888888889</v>
       </c>
@@ -73676,6 +73724,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>14.67216666666667</v>
+      </c>
       <c r="C18" t="n">
         <v>467.9133333333334</v>
       </c>
@@ -73731,6 +73782,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>12.16483333333333</v>
+      </c>
       <c r="C19" t="n">
         <v>409.9872222222222</v>
       </c>
@@ -73786,6 +73840,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>13.50116666666667</v>
+      </c>
       <c r="C20" t="n">
         <v>459.9161111111111</v>
       </c>
@@ -73841,6 +73898,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>14.7905</v>
+      </c>
       <c r="C21" t="n">
         <v>441.4916666666667</v>
       </c>
@@ -73896,6 +73956,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>12.87633333333333</v>
+      </c>
       <c r="C22" t="n">
         <v>427.4155555555556</v>
       </c>
@@ -73951,6 +74014,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>13.6995</v>
+      </c>
       <c r="C23" t="n">
         <v>450.3888888888889</v>
       </c>
@@ -74006,6 +74072,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>14.12933333333333</v>
+      </c>
       <c r="C24" t="n">
         <v>454.0966666666667</v>
       </c>
@@ -74061,6 +74130,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.584</v>
+      </c>
       <c r="C25" t="n">
         <v>437.1994444444445</v>
       </c>
@@ -74116,6 +74188,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>14.02983333333333</v>
+      </c>
       <c r="C26" t="n">
         <v>461.6455555555556</v>
       </c>
@@ -74171,6 +74246,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>13.08416666666667</v>
+      </c>
       <c r="C27" t="n">
         <v>438.5216666666666</v>
       </c>
@@ -74226,6 +74304,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>12.28366666666667</v>
+      </c>
       <c r="C28" t="n">
         <v>440.2694444444444</v>
       </c>
@@ -74281,6 +74362,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>13.3615</v>
+      </c>
       <c r="C29" t="n">
         <v>438.5205555555556</v>
       </c>
@@ -74336,6 +74420,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.29933333333333</v>
+      </c>
       <c r="C30" t="n">
         <v>436.0405555555556</v>
       </c>
@@ -74390,6 +74477,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12.66766666666667</v>
       </c>
       <c r="C31" t="n">
         <v>434.0316666666666</v>
